--- a/test-cases/Customer/Regression test case for Automation.xlsx
+++ b/test-cases/Customer/Regression test case for Automation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaAutomation\FirstTestNG\test-cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaAutomation\FirstTestNG\test-cases\Customer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,20 +21,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Sl no.</t>
   </si>
   <si>
-    <t xml:space="preserve">Module </t>
-  </si>
-  <si>
     <t xml:space="preserve">Test Scenario </t>
   </si>
   <si>
-    <t>Test Case Id</t>
-  </si>
-  <si>
     <t>Test case Title</t>
   </si>
   <si>
@@ -50,30 +44,9 @@
     <t>Expected result</t>
   </si>
   <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Seviority</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer </t>
-  </si>
-  <si>
     <t xml:space="preserve">Create customer </t>
   </si>
   <si>
-    <t>VL_001</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create Customer </t>
   </si>
   <si>
@@ -89,22 +62,58 @@
     <t xml:space="preserve">User should able to create customer and it should display in customer list. </t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>Blocker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer </t>
-  </si>
-  <si>
     <t xml:space="preserve">Customer list </t>
   </si>
   <si>
-    <t>VL_002</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check created customer in customer list  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on customer list,  2. search created customer    </t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Already created customer should be able to visible in customer List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assertion. </t>
+  </si>
+  <si>
+    <t>1.Check its matching with already created customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow </t>
+  </si>
+  <si>
+    <t>Customer _001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit the customer, capture location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on edit button       2. Captured the Location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on location capture button and save , </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set the customer Route for created customer.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer list should able to visible selected Route </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete the customer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete the created customer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deleted customer should disappear form list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on dropdown button,                            2. Click on Route dropdown and select </t>
   </si>
 </sst>
 </file>
@@ -150,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -186,11 +195,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -204,19 +302,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,191 +578,207 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:V16"/>
+  <dimension ref="A3:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="I3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:17" s="7" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="20"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="8"/>
     </row>
-    <row r="5" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="10" t="s">
+    <row r="7" spans="1:17" s="7" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="23">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="24">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="15"/>
     </row>
-    <row r="6" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-    </row>
-    <row r="7" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
